--- a/docs/gridsearch1.rbf.scatterplot.xlsx
+++ b/docs/gridsearch1.rbf.scatterplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanqnelson/GitHub/ryanquinnnelson/CMU-02750-HW3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE652A9E-361A-474E-8607-F50AF0EBF120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F0F2E-AB4A-494B-BC50-7D7536FAFB00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{98F2019C-E7BA-D147-9443-AEC5399B88AA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$323</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1665,10 +1665,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$244:$B$303</c:f>
+              <c:f>Sheet1!$B$244:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2.7602796113413102</c:v>
                 </c:pt>
@@ -1848,16 +1848,76 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>4.8878431133182003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49026540700599802</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49577245213293503</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.49880672830745998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.498990287360699</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.50362261129663899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.50455121739738795</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.49904774531822099</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.49664768875848297</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.49545758203857898</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50425205994606104</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.507448427237009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.498480426009065</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.503027736213986</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49498598323495302</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50293060732499495</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.50859994878055403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49923137836984499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.50553841919939602</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49245337449328902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.502547823558256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$244:$C$303</c:f>
+              <c:f>Sheet1!$C$244:$C$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.56352220231156502</c:v>
                 </c:pt>
@@ -2037,6 +2097,66 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.54308729288781799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55083327287626704</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.53768602828172096</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.52140453446492196</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54141947247381195</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.52221519714778097</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54506601533265697</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.50160552874699404</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52035482558023305</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.53362503218281798</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53985397795200496</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.52949515238967004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50628386394967095</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53113574583701895</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53523437754070302</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54543302808778504</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.52643956228028399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.55259461526110498</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.55081880803281502</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53269735057939105</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.538060758708099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,10 +3393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06DC259-583B-7B41-81D0-9953F8583EAD}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C303"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="153" zoomScaleNormal="341" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="341" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6614,8 +6734,228 @@
         <v>0.54308729288781799</v>
       </c>
     </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>3.9</v>
+      </c>
+      <c r="B304">
+        <v>0.49026540700599802</v>
+      </c>
+      <c r="C304">
+        <v>0.55083327287626704</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>3.9</v>
+      </c>
+      <c r="B305">
+        <v>0.49577245213293503</v>
+      </c>
+      <c r="C305">
+        <v>0.53768602828172096</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>3.9</v>
+      </c>
+      <c r="B306">
+        <v>0.49880672830745998</v>
+      </c>
+      <c r="C306">
+        <v>0.52140453446492196</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>3.9</v>
+      </c>
+      <c r="B307">
+        <v>0.498990287360699</v>
+      </c>
+      <c r="C307">
+        <v>0.54141947247381195</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>3.9</v>
+      </c>
+      <c r="B308">
+        <v>0.50362261129663899</v>
+      </c>
+      <c r="C308">
+        <v>0.52221519714778097</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>3.9</v>
+      </c>
+      <c r="B309">
+        <v>0.50455121739738795</v>
+      </c>
+      <c r="C309">
+        <v>0.54506601533265697</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>3.9</v>
+      </c>
+      <c r="B310">
+        <v>0.49904774531822099</v>
+      </c>
+      <c r="C310">
+        <v>0.50160552874699404</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>3.9</v>
+      </c>
+      <c r="B311">
+        <v>0.49664768875848297</v>
+      </c>
+      <c r="C311">
+        <v>0.52035482558023305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>3.9</v>
+      </c>
+      <c r="B312">
+        <v>0.49545758203857898</v>
+      </c>
+      <c r="C312">
+        <v>0.53362503218281798</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>3.9</v>
+      </c>
+      <c r="B313">
+        <v>0.50425205994606104</v>
+      </c>
+      <c r="C313">
+        <v>0.53985397795200496</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>3.9</v>
+      </c>
+      <c r="B314">
+        <v>0.507448427237009</v>
+      </c>
+      <c r="C314">
+        <v>0.52949515238967004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>3.9</v>
+      </c>
+      <c r="B315">
+        <v>0.498480426009065</v>
+      </c>
+      <c r="C315">
+        <v>0.50628386394967095</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>3.9</v>
+      </c>
+      <c r="B316">
+        <v>0.503027736213986</v>
+      </c>
+      <c r="C316">
+        <v>0.53113574583701895</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>3.9</v>
+      </c>
+      <c r="B317">
+        <v>0.49498598323495302</v>
+      </c>
+      <c r="C317">
+        <v>0.53523437754070302</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>3.9</v>
+      </c>
+      <c r="B318">
+        <v>0.50293060732499495</v>
+      </c>
+      <c r="C318">
+        <v>0.54543302808778504</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>3.9</v>
+      </c>
+      <c r="B319">
+        <v>0.50859994878055403</v>
+      </c>
+      <c r="C319">
+        <v>0.52643956228028399</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>3.9</v>
+      </c>
+      <c r="B320">
+        <v>0.49923137836984499</v>
+      </c>
+      <c r="C320">
+        <v>0.55259461526110498</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>3.9</v>
+      </c>
+      <c r="B321">
+        <v>0.50553841919939602</v>
+      </c>
+      <c r="C321">
+        <v>0.55081880803281502</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>3.9</v>
+      </c>
+      <c r="B322">
+        <v>0.49245337449328902</v>
+      </c>
+      <c r="C322">
+        <v>0.53269735057939105</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>3.9</v>
+      </c>
+      <c r="B323">
+        <v>0.502547823558256</v>
+      </c>
+      <c r="C323">
+        <v>0.538060758708099</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C243" xr:uid="{EA202254-1ABC-3645-BCDB-682375C203EB}">
+  <autoFilter ref="A1:C323" xr:uid="{EA202254-1ABC-3645-BCDB-682375C203EB}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="greaterThanOrEqual" val="0.3"/>

--- a/docs/gridsearch1.rbf.scatterplot.xlsx
+++ b/docs/gridsearch1.rbf.scatterplot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanqnelson/GitHub/ryanquinnnelson/CMU-02750-HW3/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F0F2E-AB4A-494B-BC50-7D7536FAFB00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC81DE2D-1ED4-634A-833F-F818E2F0856B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{98F2019C-E7BA-D147-9443-AEC5399B88AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="9">
   <si>
     <t>experiment</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>3_10</t>
   </si>
 </sst>
 </file>
@@ -180,7 +198,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>3.6</c:v>
+            <c:v>3_6</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -209,44 +227,59 @@
               <c:f>Sheet1!$B$9:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.907692308</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -257,44 +290,59 @@
               <c:f>Sheet1!$C$9:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>-14.425781349999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.425781349999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.425781349999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.4989904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.39209365</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.35636391899999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>0.51637653299999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.52201257899999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.52836980099999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.534164957</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>0.53620178299999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>0.53947604000000005</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.53968695</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>0.54018640100000004</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>0.54160984499999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>0.54407123300000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>0.55173694399999995</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>0.56367371700000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -311,7 +359,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>3.7</c:v>
+            <c:v>3_7</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -340,18 +388,18 @@
               <c:f>Sheet1!$B$27:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>6.3230769230000003</c:v>
+                  <c:v>5.9846153849999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6615384620000002</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3230769230000003</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.3230769230000003</c:v>
@@ -360,444 +408,486 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.8307692309999997</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6615384620000002</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6615384620000002</c:v>
+                  <c:v>6.153846154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56923076900000003</c:v>
+                  <c:v>6.4923076919999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8307692309999997</c:v>
+                  <c:v>5.9846153849999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6615384620000002</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.8153846150000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>6.153846154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3230769230000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6615384620000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3230769230000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3230769230000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8307692309999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6615384620000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6615384620000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56923076900000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8307692309999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6615384620000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8153846150000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5.9846153849999997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>6.153846154</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
                   <c:v>6.153846154</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>6.4923076919999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
                   <c:v>5.8153846150000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="32">
                   <c:v>6.8307692309999997</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="33">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="34">
                   <c:v>6.4923076919999998</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="35">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="36">
                   <c:v>5.6461538459999998</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="37">
                   <c:v>3.615384615</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="38">
                   <c:v>2.2615384619999999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>6.4923076919999998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="40">
                   <c:v>4.6307692310000004</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="41">
                   <c:v>4.1230769230000002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="42">
                   <c:v>5.4769230770000004</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="43">
                   <c:v>2.4307692310000002</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="44">
                   <c:v>1.923076923</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="45">
                   <c:v>4.2923076919999996</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
                   <c:v>2.4307692310000002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="47">
                   <c:v>1.2461538459999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="48">
                   <c:v>1.923076923</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="49">
                   <c:v>0.73846153800000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="50">
                   <c:v>1.7538461540000001</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="51">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="52">
                   <c:v>1.584615385</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
                   <c:v>1.2461538459999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.2769230770000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.076923077</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.505380724</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.584615385</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.461538462</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.81229405200000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.8153846150000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.076923077</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.56923076900000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.56923076900000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.0923076919999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.1384615379999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.1230769230000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.0923076919999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3.2769230770000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>1.076923077</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.505380724</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.584615385</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.461538462</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81229405200000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.8153846150000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.076923077</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56923076900000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56923076900000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0923076919999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.1384615379999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1230769230000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0923076919999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2769230770000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>3.1076923079999998</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="70">
                   <c:v>5.307692308</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="71">
                   <c:v>1.415384615</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="72">
                   <c:v>3.615384615</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="73">
                   <c:v>5.1384615379999996</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="74">
                   <c:v>1.076923077</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="75">
                   <c:v>2.2615384619999999</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="76">
                   <c:v>5.307692308</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="77">
                   <c:v>5.6461538459999998</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="78">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="79">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="80">
                   <c:v>0.907692308</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="81">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="82">
                   <c:v>2.0923076919999999</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="83">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="84">
                   <c:v>0.73846153800000003</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="85">
                   <c:v>4.461538462</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
                   <c:v>3.4461538460000001</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="87">
                   <c:v>2.4307692310000002</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="88">
                   <c:v>5.307692308</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>3.1076923079999998</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>3.7846153849999999</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>5.4769230770000004</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>3.9538461539999998</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
                   <c:v>2.769230769</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="94">
                   <c:v>3.4461538460000001</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="95">
                   <c:v>4.2923076919999996</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="96">
                   <c:v>2.9384615379999999</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="97">
                   <c:v>3.7846153849999999</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="98">
                   <c:v>3.4461538460000001</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="99">
                   <c:v>4.9692307690000002</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="100">
                   <c:v>1.923076923</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="101">
                   <c:v>5.307692308</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="102">
                   <c:v>4.1230769230000002</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="103">
                   <c:v>4.2923076919999996</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="104">
                   <c:v>3.9538461539999998</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="105">
                   <c:v>3.615384615</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="106">
                   <c:v>2.9384615379999999</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="107">
                   <c:v>1.7538461540000001</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="108">
                   <c:v>2.2615384619999999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="109">
                   <c:v>2.4307692310000002</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="110">
                   <c:v>5.6461538459999998</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="111">
                   <c:v>2.9384615379999999</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="112">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="113">
                   <c:v>3.1076923079999998</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="114">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="115">
                   <c:v>2.0923076919999999</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="116">
                   <c:v>3.7846153849999999</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="117">
                   <c:v>3.4461538460000001</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="118">
                   <c:v>5.1384615379999996</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="119">
                   <c:v>1.2461538459999999</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="120">
                   <c:v>3.9538461539999998</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="121">
                   <c:v>4.1230769230000002</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="122">
                   <c:v>4.9692307690000002</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="123">
                   <c:v>2.769230769</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="124">
                   <c:v>2.9384615379999999</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="125">
                   <c:v>2.769230769</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.7538461540000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>4.9692307690000002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.461538462</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.584615385</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5.6461538459999998</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.907692308</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.73846153800000003</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5.4769230770000004</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.615384615</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.415384615</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>4.2923076919999996</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3.2769230770000002</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.56923076900000003</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.2615384619999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>1.7538461540000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
+                  <c:v>4.9692307690000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.461538462</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.584615385</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.6461538459999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.907692308</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.73846153800000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.4769230770000004</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.615384615</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.415384615</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.2923076919999996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.2769230770000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.56923076900000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.2615384619999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7538461540000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>3.1076923079999998</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="142">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="143">
                   <c:v>3.9538461539999998</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="144">
                   <c:v>1.2461538459999999</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="145">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="146">
                   <c:v>1.076923077</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="147">
                   <c:v>4.9692307690000002</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="148">
                   <c:v>4.6307692310000004</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="149">
                   <c:v>0.747368421</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="150">
                   <c:v>5.1384615379999996</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="151">
                   <c:v>1.415384615</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="152">
                   <c:v>3.2769230770000002</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="153">
                   <c:v>4.6307692310000004</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="154">
                   <c:v>4.461538462</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="155">
                   <c:v>4.6307692310000004</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="156">
                   <c:v>5.4769230770000004</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="157">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="158">
                   <c:v>1.415384615</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="159">
                   <c:v>1.584615385</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="160">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="161">
                   <c:v>0.907692308</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="162">
                   <c:v>0.73846153800000003</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="163">
                   <c:v>1.923076923</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="164">
                   <c:v>3.7846153849999999</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="165">
                   <c:v>5.9846153849999997</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="166">
                   <c:v>2.769230769</c:v>
                 </c:pt>
               </c:numCache>
@@ -808,464 +898,506 @@
               <c:f>Sheet1!$C$27:$C$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
+                  <c:v>-14.425781349999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.37697756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.327841490000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.31676163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.7231673750000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0606502209999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6570303719999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.75034963700000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.708995508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8308041000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.1052320000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7020742E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4489898999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5358907999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.35777182099999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="15">
                   <c:v>0.362999723</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>0.366115254</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
                   <c:v>0.36614155199999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="18">
                   <c:v>0.36957151500000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="19">
                   <c:v>0.37029959600000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
                   <c:v>0.38827316099999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>0.395833773</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
                   <c:v>0.40004604500000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="23">
                   <c:v>0.40039775900000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="24">
                   <c:v>0.40047331200000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="25">
                   <c:v>0.40836768899999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
                   <c:v>0.41440790999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
                   <c:v>0.433406177</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>0.43442250799999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
                   <c:v>0.43492309699999998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>0.442891706</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
                   <c:v>0.46198869399999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="32">
                   <c:v>0.46468015499999998</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="33">
                   <c:v>0.48629656700000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="34">
                   <c:v>0.49324159299999998</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="35">
                   <c:v>0.49422078699999999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="36">
                   <c:v>0.496739867</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="37">
                   <c:v>0.49987736900000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="38">
                   <c:v>0.50295487900000002</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>0.50423905099999999</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="40">
                   <c:v>0.50675044199999997</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="41">
                   <c:v>0.51401068699999997</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="42">
                   <c:v>0.51786156000000005</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="43">
                   <c:v>0.51879633999999997</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="44">
                   <c:v>0.51979039599999999</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="45">
                   <c:v>0.51992226600000002</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
                   <c:v>0.52147196299999998</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="47">
                   <c:v>0.52276160699999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="48">
                   <c:v>0.52360227999999998</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="49">
                   <c:v>0.52425894100000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="50">
                   <c:v>0.524281047</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="51">
                   <c:v>0.52546366799999999</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="52">
                   <c:v>0.52624885200000004</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
                   <c:v>0.52752774999999996</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="54">
                   <c:v>0.52806417800000005</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>0.52898529699999997</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>0.52899265600000001</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>0.52899567800000002</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
                   <c:v>0.529012382</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="59">
                   <c:v>0.52986786200000002</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="60">
                   <c:v>0.52993373300000002</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="61">
                   <c:v>0.53037355900000005</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="62">
                   <c:v>0.53081478400000004</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="63">
                   <c:v>0.53125610000000001</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="64">
                   <c:v>0.53171814699999997</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="65">
                   <c:v>0.53198033899999997</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="66">
                   <c:v>0.53200075199999997</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="67">
                   <c:v>0.53209820500000005</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="68">
                   <c:v>0.53327852399999998</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="69">
                   <c:v>0.53367569599999998</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="70">
                   <c:v>0.53369238600000002</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="71">
                   <c:v>0.53396628099999999</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="72">
                   <c:v>0.53416485800000002</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="73">
                   <c:v>0.53427383699999997</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="74">
                   <c:v>0.53443011500000004</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="75">
                   <c:v>0.53529630100000003</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="76">
                   <c:v>0.53581015300000001</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="77">
                   <c:v>0.53608442000000001</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="78">
                   <c:v>0.53620172499999996</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="79">
                   <c:v>0.53680640999999996</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="80">
                   <c:v>0.537845978</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="81">
                   <c:v>0.53794545199999999</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="82">
                   <c:v>0.53819820500000004</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="83">
                   <c:v>0.53864582000000005</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="84">
                   <c:v>0.53879067000000003</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="85">
                   <c:v>0.53882177799999997</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
                   <c:v>0.53902797000000002</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="87">
                   <c:v>0.53929348799999999</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="88">
                   <c:v>0.53929978700000003</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>0.53947596600000003</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>0.53968692299999999</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>0.53979272</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>0.53982437900000002</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
                   <c:v>0.54018650599999996</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="94">
                   <c:v>0.54074224900000001</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="95">
                   <c:v>0.54079986000000002</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="96">
                   <c:v>0.54117755099999998</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="97">
                   <c:v>0.54154802999999996</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="98">
                   <c:v>0.541609813</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="99">
                   <c:v>0.54170282400000003</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="100">
                   <c:v>0.54201343599999996</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="101">
                   <c:v>0.54233564400000001</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="102">
                   <c:v>0.54247317699999997</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="103">
                   <c:v>0.54289119100000005</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="104">
                   <c:v>0.54304247900000002</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="105">
                   <c:v>0.54308729200000005</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="106">
                   <c:v>0.54360199499999995</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="107">
                   <c:v>0.54378906900000001</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="108">
                   <c:v>0.54402113600000002</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="109">
                   <c:v>0.54407121599999997</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="110">
                   <c:v>0.54448432000000002</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="111">
                   <c:v>0.54454138500000004</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="112">
                   <c:v>0.54454153199999999</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="113">
                   <c:v>0.54456738100000002</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="114">
                   <c:v>0.54491535400000002</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="115">
                   <c:v>0.54497563900000001</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="116">
                   <c:v>0.54509222300000004</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="117">
                   <c:v>0.54510010099999995</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="118">
                   <c:v>0.54547405100000002</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="119">
                   <c:v>0.54582904300000001</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="120">
                   <c:v>0.54605096200000003</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="121">
                   <c:v>0.54645302900000003</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="122">
                   <c:v>0.54709576500000001</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="123">
                   <c:v>0.54723121299999999</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="124">
                   <c:v>0.54749086199999997</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="125">
                   <c:v>0.54750130299999999</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="126">
                   <c:v>0.54765499200000001</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="127">
                   <c:v>0.54806481799999995</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="128">
                   <c:v>0.54838093200000004</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="129">
                   <c:v>0.54854059099999997</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="130">
                   <c:v>0.54862035300000001</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="131">
                   <c:v>0.54873625500000001</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="132">
                   <c:v>0.54896143900000005</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="133">
                   <c:v>0.54958123000000003</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="134">
                   <c:v>0.55007024900000001</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="135">
                   <c:v>0.55036916899999999</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="136">
                   <c:v>0.55084978600000001</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="137">
                   <c:v>0.55173689599999998</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="138">
                   <c:v>0.55187774199999995</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="139">
                   <c:v>0.55198932700000003</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="140">
                   <c:v>0.55240309499999996</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="141">
                   <c:v>0.55245649500000005</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="142">
                   <c:v>0.55261262899999997</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="143">
                   <c:v>0.55261286499999995</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="144">
                   <c:v>0.55265990799999998</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="145">
                   <c:v>0.55272656499999995</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="146">
                   <c:v>0.55304964499999998</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="147">
                   <c:v>0.55328919399999998</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="148">
                   <c:v>0.55343694799999998</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="149">
                   <c:v>0.55352876100000004</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="150">
                   <c:v>0.55352878299999997</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="151">
                   <c:v>0.55423313900000004</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="152">
                   <c:v>0.55469195699999996</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="153">
                   <c:v>0.55504545900000002</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="154">
                   <c:v>0.55548521799999995</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="155">
                   <c:v>0.55571288500000005</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="156">
                   <c:v>0.55742792299999999</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="157">
                   <c:v>0.55775619399999998</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="158">
                   <c:v>0.55813321500000002</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="159">
                   <c:v>0.55844291499999998</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="160">
                   <c:v>0.55864601400000002</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="161">
                   <c:v>0.55890643500000003</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="162">
                   <c:v>0.56026762699999999</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="163">
                   <c:v>0.56052010699999999</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="164">
                   <c:v>0.562384361</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="165">
                   <c:v>0.56394765999999996</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="166">
                   <c:v>0.56696103600000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1282,7 +1414,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3.8</c:v>
+            <c:v>3_8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1635,7 +1767,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>3.9</c:v>
+            <c:v>3_9</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2165,6 +2297,113 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-175C-F84C-93BF-AB362B6B40AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>3_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$324:$B$332</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9829999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$324:$C$332</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55330734792957204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53371646814773799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.548961443715136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52836954924963797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53443001464653095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55265893997003801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.550369079566565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.548540553513438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52428083459975205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EA0-854D-B1D2-0F154BA6606B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3059,15 +3298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>658283</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3392,11 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06DC259-583B-7B41-81D0-9953F8583EAD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="341" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324:C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3412,9 +3650,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3.5</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1E-10</v>
@@ -3423,9 +3661,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3.5</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3434,9 +3672,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3.5</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -3445,9 +3683,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3.5</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -3456,9 +3694,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3.5</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -3467,9 +3705,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3.5</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3479,8 +3717,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3.5</v>
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3489,9 +3727,9 @@
         <v>0.53443001300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3.6</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -3500,9 +3738,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3.6</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0.2</v>
@@ -3511,9 +3749,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3.6</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -3522,9 +3760,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3.6</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -3533,9 +3771,9 @@
         <v>-11.4989904</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3.6</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0.3</v>
@@ -3545,8 +3783,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3.6</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -3556,8 +3794,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3.6</v>
+      <c r="A15" t="s">
+        <v>4</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -3567,8 +3805,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3.6</v>
+      <c r="A16" t="s">
+        <v>4</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3578,8 +3816,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3.6</v>
+      <c r="A17" t="s">
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0.907692308</v>
@@ -3589,8 +3827,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3.6</v>
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3600,8 +3838,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3.6</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
       <c r="B19">
         <v>0.7</v>
@@ -3611,8 +3849,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3.6</v>
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3622,8 +3860,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3.6</v>
+      <c r="A21" t="s">
+        <v>4</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -3633,8 +3871,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3.6</v>
+      <c r="A22" t="s">
+        <v>4</v>
       </c>
       <c r="B22">
         <v>0.8</v>
@@ -3644,8 +3882,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3.6</v>
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3655,8 +3893,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3.6</v>
+      <c r="A24" t="s">
+        <v>4</v>
       </c>
       <c r="B24">
         <v>0.6</v>
@@ -3666,8 +3904,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3.6</v>
+      <c r="A25" t="s">
+        <v>4</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3677,8 +3915,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3.6</v>
+      <c r="A26" t="s">
+        <v>4</v>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -3687,9 +3925,9 @@
         <v>0.56367371700000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>3.7</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
       </c>
       <c r="B27">
         <v>5.9846153849999997</v>
@@ -3698,9 +3936,9 @@
         <v>-14.425781349999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3.7</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
       </c>
       <c r="B28">
         <v>0.4</v>
@@ -3709,9 +3947,9 @@
         <v>-11.37697756</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3.7</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
       </c>
       <c r="B29">
         <v>0.4</v>
@@ -3720,9 +3958,9 @@
         <v>-11.327841490000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>3.7</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0.4</v>
@@ -3731,9 +3969,9 @@
         <v>-11.31676163</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>3.7</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
       </c>
       <c r="B31">
         <v>6.3230769230000003</v>
@@ -3742,9 +3980,9 @@
         <v>-6.7231673750000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>3.7</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -3753,9 +3991,9 @@
         <v>-3.0606502209999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>3.7</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -3764,9 +4002,9 @@
         <v>-1.6570303719999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3.7</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
       </c>
       <c r="B34">
         <v>6.8307692309999997</v>
@@ -3775,9 +4013,9 @@
         <v>-0.75034963700000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3.7</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
       </c>
       <c r="B35">
         <v>6.153846154</v>
@@ -3786,9 +4024,9 @@
         <v>-0.708995508</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>3.7</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
       </c>
       <c r="B36">
         <v>6.4923076919999998</v>
@@ -3797,9 +4035,9 @@
         <v>-1.8308041000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3.7</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
       </c>
       <c r="B37">
         <v>5.9846153849999997</v>
@@ -3808,9 +4046,9 @@
         <v>-8.1052320000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>3.7</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -3819,9 +4057,9 @@
         <v>2.7020742E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3.7</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
       </c>
       <c r="B39">
         <v>5.8153846150000001</v>
@@ -3830,9 +4068,9 @@
         <v>4.4489898999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3.7</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
       </c>
       <c r="B40">
         <v>6.153846154</v>
@@ -3842,8 +4080,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3.7</v>
+      <c r="A41" t="s">
+        <v>5</v>
       </c>
       <c r="B41">
         <v>6.3230769230000003</v>
@@ -3853,8 +4091,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>3.7</v>
+      <c r="A42" t="s">
+        <v>5</v>
       </c>
       <c r="B42">
         <v>6.6615384620000002</v>
@@ -3864,8 +4102,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>3.7</v>
+      <c r="A43" t="s">
+        <v>5</v>
       </c>
       <c r="B43">
         <v>6.3230769230000003</v>
@@ -3875,8 +4113,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3.7</v>
+      <c r="A44" t="s">
+        <v>5</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3886,8 +4124,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>3.7</v>
+      <c r="A45" t="s">
+        <v>5</v>
       </c>
       <c r="B45">
         <v>6.3230769230000003</v>
@@ -3897,8 +4135,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3.7</v>
+      <c r="A46" t="s">
+        <v>5</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3908,8 +4146,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>3.7</v>
+      <c r="A47" t="s">
+        <v>5</v>
       </c>
       <c r="B47">
         <v>6.8307692309999997</v>
@@ -3919,8 +4157,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>3.7</v>
+      <c r="A48" t="s">
+        <v>5</v>
       </c>
       <c r="B48">
         <v>6.6615384620000002</v>
@@ -3930,8 +4168,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>3.7</v>
+      <c r="A49" t="s">
+        <v>5</v>
       </c>
       <c r="B49">
         <v>6.6615384620000002</v>
@@ -3941,8 +4179,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>3.7</v>
+      <c r="A50" t="s">
+        <v>5</v>
       </c>
       <c r="B50">
         <v>0.56923076900000003</v>
@@ -3952,8 +4190,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>3.7</v>
+      <c r="A51" t="s">
+        <v>5</v>
       </c>
       <c r="B51">
         <v>6.8307692309999997</v>
@@ -3963,8 +4201,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>3.7</v>
+      <c r="A52" t="s">
+        <v>5</v>
       </c>
       <c r="B52">
         <v>6.6615384620000002</v>
@@ -3974,8 +4212,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>3.7</v>
+      <c r="A53" t="s">
+        <v>5</v>
       </c>
       <c r="B53">
         <v>5.8153846150000001</v>
@@ -3985,8 +4223,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>3.7</v>
+      <c r="A54" t="s">
+        <v>5</v>
       </c>
       <c r="B54">
         <v>5.9846153849999997</v>
@@ -3996,8 +4234,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>3.7</v>
+      <c r="A55" t="s">
+        <v>5</v>
       </c>
       <c r="B55">
         <v>6.153846154</v>
@@ -4007,8 +4245,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>3.7</v>
+      <c r="A56" t="s">
+        <v>5</v>
       </c>
       <c r="B56">
         <v>6.153846154</v>
@@ -4018,8 +4256,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>3.7</v>
+      <c r="A57" t="s">
+        <v>5</v>
       </c>
       <c r="B57">
         <v>6.4923076919999998</v>
@@ -4029,8 +4267,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>3.7</v>
+      <c r="A58" t="s">
+        <v>5</v>
       </c>
       <c r="B58">
         <v>5.8153846150000001</v>
@@ -4040,8 +4278,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>3.7</v>
+      <c r="A59" t="s">
+        <v>5</v>
       </c>
       <c r="B59">
         <v>6.8307692309999997</v>
@@ -4051,8 +4289,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>3.7</v>
+      <c r="A60" t="s">
+        <v>5</v>
       </c>
       <c r="B60">
         <v>0.4</v>
@@ -4062,8 +4300,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>3.7</v>
+      <c r="A61" t="s">
+        <v>5</v>
       </c>
       <c r="B61">
         <v>6.4923076919999998</v>
@@ -4073,8 +4311,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>3.7</v>
+      <c r="A62" t="s">
+        <v>5</v>
       </c>
       <c r="B62">
         <v>0.4</v>
@@ -4084,8 +4322,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>3.7</v>
+      <c r="A63" t="s">
+        <v>5</v>
       </c>
       <c r="B63">
         <v>5.6461538459999998</v>
@@ -4095,8 +4333,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>3.7</v>
+      <c r="A64" t="s">
+        <v>5</v>
       </c>
       <c r="B64">
         <v>3.615384615</v>
@@ -4106,8 +4344,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>3.7</v>
+      <c r="A65" t="s">
+        <v>5</v>
       </c>
       <c r="B65">
         <v>2.2615384619999999</v>
@@ -4117,8 +4355,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>3.7</v>
+      <c r="A66" t="s">
+        <v>5</v>
       </c>
       <c r="B66">
         <v>6.4923076919999998</v>
@@ -4128,8 +4366,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>3.7</v>
+      <c r="A67" t="s">
+        <v>5</v>
       </c>
       <c r="B67">
         <v>4.6307692310000004</v>
@@ -4139,8 +4377,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>3.7</v>
+      <c r="A68" t="s">
+        <v>5</v>
       </c>
       <c r="B68">
         <v>4.1230769230000002</v>
@@ -4150,8 +4388,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>3.7</v>
+      <c r="A69" t="s">
+        <v>5</v>
       </c>
       <c r="B69">
         <v>5.4769230770000004</v>
@@ -4161,8 +4399,8 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>3.7</v>
+      <c r="A70" t="s">
+        <v>5</v>
       </c>
       <c r="B70">
         <v>2.4307692310000002</v>
@@ -4172,8 +4410,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>3.7</v>
+      <c r="A71" t="s">
+        <v>5</v>
       </c>
       <c r="B71">
         <v>1.923076923</v>
@@ -4183,8 +4421,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>3.7</v>
+      <c r="A72" t="s">
+        <v>5</v>
       </c>
       <c r="B72">
         <v>4.2923076919999996</v>
@@ -4194,8 +4432,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>3.7</v>
+      <c r="A73" t="s">
+        <v>5</v>
       </c>
       <c r="B73">
         <v>2.4307692310000002</v>
@@ -4205,8 +4443,8 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>3.7</v>
+      <c r="A74" t="s">
+        <v>5</v>
       </c>
       <c r="B74">
         <v>1.2461538459999999</v>
@@ -4216,8 +4454,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>3.7</v>
+      <c r="A75" t="s">
+        <v>5</v>
       </c>
       <c r="B75">
         <v>1.923076923</v>
@@ -4227,8 +4465,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>3.7</v>
+      <c r="A76" t="s">
+        <v>5</v>
       </c>
       <c r="B76">
         <v>0.73846153800000003</v>
@@ -4238,8 +4476,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>3.7</v>
+      <c r="A77" t="s">
+        <v>5</v>
       </c>
       <c r="B77">
         <v>1.7538461540000001</v>
@@ -4249,8 +4487,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>3.7</v>
+      <c r="A78" t="s">
+        <v>5</v>
       </c>
       <c r="B78">
         <v>4.8</v>
@@ -4260,8 +4498,8 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>3.7</v>
+      <c r="A79" t="s">
+        <v>5</v>
       </c>
       <c r="B79">
         <v>1.584615385</v>
@@ -4271,8 +4509,8 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>3.7</v>
+      <c r="A80" t="s">
+        <v>5</v>
       </c>
       <c r="B80">
         <v>1.2461538459999999</v>
@@ -4282,8 +4520,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>3.7</v>
+      <c r="A81" t="s">
+        <v>5</v>
       </c>
       <c r="B81">
         <v>3.2769230770000002</v>
@@ -4293,8 +4531,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>3.7</v>
+      <c r="A82" t="s">
+        <v>5</v>
       </c>
       <c r="B82">
         <v>1.076923077</v>
@@ -4304,8 +4542,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>3.7</v>
+      <c r="A83" t="s">
+        <v>5</v>
       </c>
       <c r="B83">
         <v>0.505380724</v>
@@ -4315,8 +4553,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>3.7</v>
+      <c r="A84" t="s">
+        <v>5</v>
       </c>
       <c r="B84">
         <v>1.584615385</v>
@@ -4326,8 +4564,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>3.7</v>
+      <c r="A85" t="s">
+        <v>5</v>
       </c>
       <c r="B85">
         <v>4.461538462</v>
@@ -4337,8 +4575,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>3.7</v>
+      <c r="A86" t="s">
+        <v>5</v>
       </c>
       <c r="B86">
         <v>0.81229405200000004</v>
@@ -4348,8 +4586,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>3.7</v>
+      <c r="A87" t="s">
+        <v>5</v>
       </c>
       <c r="B87">
         <v>5.8153846150000001</v>
@@ -4359,8 +4597,8 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>3.7</v>
+      <c r="A88" t="s">
+        <v>5</v>
       </c>
       <c r="B88">
         <v>1.076923077</v>
@@ -4370,8 +4608,8 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>3.7</v>
+      <c r="A89" t="s">
+        <v>5</v>
       </c>
       <c r="B89">
         <v>0.56923076900000003</v>
@@ -4381,8 +4619,8 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>3.7</v>
+      <c r="A90" t="s">
+        <v>5</v>
       </c>
       <c r="B90">
         <v>0.56923076900000003</v>
@@ -4392,8 +4630,8 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>3.7</v>
+      <c r="A91" t="s">
+        <v>5</v>
       </c>
       <c r="B91">
         <v>2.0923076919999999</v>
@@ -4403,8 +4641,8 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>3.7</v>
+      <c r="A92" t="s">
+        <v>5</v>
       </c>
       <c r="B92">
         <v>5.1384615379999996</v>
@@ -4414,8 +4652,8 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>3.7</v>
+      <c r="A93" t="s">
+        <v>5</v>
       </c>
       <c r="B93">
         <v>4.1230769230000002</v>
@@ -4425,8 +4663,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>3.7</v>
+      <c r="A94" t="s">
+        <v>5</v>
       </c>
       <c r="B94">
         <v>2.0923076919999999</v>
@@ -4436,8 +4674,8 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>3.7</v>
+      <c r="A95" t="s">
+        <v>5</v>
       </c>
       <c r="B95">
         <v>3.2769230770000002</v>
@@ -4447,8 +4685,8 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>3.7</v>
+      <c r="A96" t="s">
+        <v>5</v>
       </c>
       <c r="B96">
         <v>3.1076923079999998</v>
@@ -4458,8 +4696,8 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>3.7</v>
+      <c r="A97" t="s">
+        <v>5</v>
       </c>
       <c r="B97">
         <v>5.307692308</v>
@@ -4469,8 +4707,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>3.7</v>
+      <c r="A98" t="s">
+        <v>5</v>
       </c>
       <c r="B98">
         <v>1.415384615</v>
@@ -4480,8 +4718,8 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>3.7</v>
+      <c r="A99" t="s">
+        <v>5</v>
       </c>
       <c r="B99">
         <v>3.615384615</v>
@@ -4491,8 +4729,8 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>3.7</v>
+      <c r="A100" t="s">
+        <v>5</v>
       </c>
       <c r="B100">
         <v>5.1384615379999996</v>
@@ -4502,8 +4740,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3.7</v>
+      <c r="A101" t="s">
+        <v>5</v>
       </c>
       <c r="B101">
         <v>1.076923077</v>
@@ -4513,8 +4751,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>3.7</v>
+      <c r="A102" t="s">
+        <v>5</v>
       </c>
       <c r="B102">
         <v>2.2615384619999999</v>
@@ -4524,8 +4762,8 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>3.7</v>
+      <c r="A103" t="s">
+        <v>5</v>
       </c>
       <c r="B103">
         <v>5.307692308</v>
@@ -4535,8 +4773,8 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>3.7</v>
+      <c r="A104" t="s">
+        <v>5</v>
       </c>
       <c r="B104">
         <v>5.6461538459999998</v>
@@ -4546,8 +4784,8 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>3.7</v>
+      <c r="A105" t="s">
+        <v>5</v>
       </c>
       <c r="B105">
         <v>2.6</v>
@@ -4557,8 +4795,8 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>3.7</v>
+      <c r="A106" t="s">
+        <v>5</v>
       </c>
       <c r="B106">
         <v>4.8</v>
@@ -4568,8 +4806,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>3.7</v>
+      <c r="A107" t="s">
+        <v>5</v>
       </c>
       <c r="B107">
         <v>0.907692308</v>
@@ -4579,8 +4817,8 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>3.7</v>
+      <c r="A108" t="s">
+        <v>5</v>
       </c>
       <c r="B108">
         <v>4.8</v>
@@ -4590,8 +4828,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>3.7</v>
+      <c r="A109" t="s">
+        <v>5</v>
       </c>
       <c r="B109">
         <v>2.0923076919999999</v>
@@ -4601,8 +4839,8 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>3.7</v>
+      <c r="A110" t="s">
+        <v>5</v>
       </c>
       <c r="B110">
         <v>4.8</v>
@@ -4612,8 +4850,8 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>3.7</v>
+      <c r="A111" t="s">
+        <v>5</v>
       </c>
       <c r="B111">
         <v>0.73846153800000003</v>
@@ -4623,8 +4861,8 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>3.7</v>
+      <c r="A112" t="s">
+        <v>5</v>
       </c>
       <c r="B112">
         <v>4.461538462</v>
@@ -4634,8 +4872,8 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>3.7</v>
+      <c r="A113" t="s">
+        <v>5</v>
       </c>
       <c r="B113">
         <v>3.4461538460000001</v>
@@ -4645,8 +4883,8 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>3.7</v>
+      <c r="A114" t="s">
+        <v>5</v>
       </c>
       <c r="B114">
         <v>2.4307692310000002</v>
@@ -4656,8 +4894,8 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>3.7</v>
+      <c r="A115" t="s">
+        <v>5</v>
       </c>
       <c r="B115">
         <v>5.307692308</v>
@@ -4667,8 +4905,8 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>3.7</v>
+      <c r="A116" t="s">
+        <v>5</v>
       </c>
       <c r="B116">
         <v>3.1076923079999998</v>
@@ -4678,8 +4916,8 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>3.7</v>
+      <c r="A117" t="s">
+        <v>5</v>
       </c>
       <c r="B117">
         <v>3.7846153849999999</v>
@@ -4689,8 +4927,8 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3.7</v>
+      <c r="A118" t="s">
+        <v>5</v>
       </c>
       <c r="B118">
         <v>5.4769230770000004</v>
@@ -4700,8 +4938,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>3.7</v>
+      <c r="A119" t="s">
+        <v>5</v>
       </c>
       <c r="B119">
         <v>3.9538461539999998</v>
@@ -4711,8 +4949,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>3.7</v>
+      <c r="A120" t="s">
+        <v>5</v>
       </c>
       <c r="B120">
         <v>2.769230769</v>
@@ -4722,8 +4960,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>3.7</v>
+      <c r="A121" t="s">
+        <v>5</v>
       </c>
       <c r="B121">
         <v>3.4461538460000001</v>
@@ -4733,8 +4971,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>3.7</v>
+      <c r="A122" t="s">
+        <v>5</v>
       </c>
       <c r="B122">
         <v>4.2923076919999996</v>
@@ -4744,8 +4982,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>3.7</v>
+      <c r="A123" t="s">
+        <v>5</v>
       </c>
       <c r="B123">
         <v>2.9384615379999999</v>
@@ -4755,8 +4993,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>3.7</v>
+      <c r="A124" t="s">
+        <v>5</v>
       </c>
       <c r="B124">
         <v>3.7846153849999999</v>
@@ -4766,8 +5004,8 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>3.7</v>
+      <c r="A125" t="s">
+        <v>5</v>
       </c>
       <c r="B125">
         <v>3.4461538460000001</v>
@@ -4777,8 +5015,8 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>3.7</v>
+      <c r="A126" t="s">
+        <v>5</v>
       </c>
       <c r="B126">
         <v>4.9692307690000002</v>
@@ -4788,8 +5026,8 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>3.7</v>
+      <c r="A127" t="s">
+        <v>5</v>
       </c>
       <c r="B127">
         <v>1.923076923</v>
@@ -4799,8 +5037,8 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>3.7</v>
+      <c r="A128" t="s">
+        <v>5</v>
       </c>
       <c r="B128">
         <v>5.307692308</v>
@@ -4810,8 +5048,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>3.7</v>
+      <c r="A129" t="s">
+        <v>5</v>
       </c>
       <c r="B129">
         <v>4.1230769230000002</v>
@@ -4821,8 +5059,8 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>3.7</v>
+      <c r="A130" t="s">
+        <v>5</v>
       </c>
       <c r="B130">
         <v>4.2923076919999996</v>
@@ -4832,8 +5070,8 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>3.7</v>
+      <c r="A131" t="s">
+        <v>5</v>
       </c>
       <c r="B131">
         <v>3.9538461539999998</v>
@@ -4843,8 +5081,8 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>3.7</v>
+      <c r="A132" t="s">
+        <v>5</v>
       </c>
       <c r="B132">
         <v>3.615384615</v>
@@ -4854,8 +5092,8 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>3.7</v>
+      <c r="A133" t="s">
+        <v>5</v>
       </c>
       <c r="B133">
         <v>2.9384615379999999</v>
@@ -4865,8 +5103,8 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>3.7</v>
+      <c r="A134" t="s">
+        <v>5</v>
       </c>
       <c r="B134">
         <v>1.7538461540000001</v>
@@ -4876,8 +5114,8 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>3.7</v>
+      <c r="A135" t="s">
+        <v>5</v>
       </c>
       <c r="B135">
         <v>2.2615384619999999</v>
@@ -4887,8 +5125,8 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>3.7</v>
+      <c r="A136" t="s">
+        <v>5</v>
       </c>
       <c r="B136">
         <v>2.4307692310000002</v>
@@ -4898,8 +5136,8 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>3.7</v>
+      <c r="A137" t="s">
+        <v>5</v>
       </c>
       <c r="B137">
         <v>5.6461538459999998</v>
@@ -4909,8 +5147,8 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>3.7</v>
+      <c r="A138" t="s">
+        <v>5</v>
       </c>
       <c r="B138">
         <v>2.9384615379999999</v>
@@ -4920,8 +5158,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>3.7</v>
+      <c r="A139" t="s">
+        <v>5</v>
       </c>
       <c r="B139">
         <v>0.9</v>
@@ -4931,8 +5169,8 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>3.7</v>
+      <c r="A140" t="s">
+        <v>5</v>
       </c>
       <c r="B140">
         <v>3.1076923079999998</v>
@@ -4942,8 +5180,8 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>3.7</v>
+      <c r="A141" t="s">
+        <v>5</v>
       </c>
       <c r="B141">
         <v>0.45</v>
@@ -4953,8 +5191,8 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>3.7</v>
+      <c r="A142" t="s">
+        <v>5</v>
       </c>
       <c r="B142">
         <v>2.0923076919999999</v>
@@ -4964,8 +5202,8 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>3.7</v>
+      <c r="A143" t="s">
+        <v>5</v>
       </c>
       <c r="B143">
         <v>3.7846153849999999</v>
@@ -4975,8 +5213,8 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>3.7</v>
+      <c r="A144" t="s">
+        <v>5</v>
       </c>
       <c r="B144">
         <v>3.4461538460000001</v>
@@ -4986,8 +5224,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>3.7</v>
+      <c r="A145" t="s">
+        <v>5</v>
       </c>
       <c r="B145">
         <v>5.1384615379999996</v>
@@ -4997,8 +5235,8 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>3.7</v>
+      <c r="A146" t="s">
+        <v>5</v>
       </c>
       <c r="B146">
         <v>1.2461538459999999</v>
@@ -5008,8 +5246,8 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>3.7</v>
+      <c r="A147" t="s">
+        <v>5</v>
       </c>
       <c r="B147">
         <v>3.9538461539999998</v>
@@ -5019,8 +5257,8 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>3.7</v>
+      <c r="A148" t="s">
+        <v>5</v>
       </c>
       <c r="B148">
         <v>4.1230769230000002</v>
@@ -5030,8 +5268,8 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>3.7</v>
+      <c r="A149" t="s">
+        <v>5</v>
       </c>
       <c r="B149">
         <v>4.9692307690000002</v>
@@ -5041,8 +5279,8 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>3.7</v>
+      <c r="A150" t="s">
+        <v>5</v>
       </c>
       <c r="B150">
         <v>2.769230769</v>
@@ -5052,8 +5290,8 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>3.7</v>
+      <c r="A151" t="s">
+        <v>5</v>
       </c>
       <c r="B151">
         <v>2.9384615379999999</v>
@@ -5063,8 +5301,8 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>3.7</v>
+      <c r="A152" t="s">
+        <v>5</v>
       </c>
       <c r="B152">
         <v>2.769230769</v>
@@ -5074,8 +5312,8 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>3.7</v>
+      <c r="A153" t="s">
+        <v>5</v>
       </c>
       <c r="B153">
         <v>1.7538461540000001</v>
@@ -5085,8 +5323,8 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>3.7</v>
+      <c r="A154" t="s">
+        <v>5</v>
       </c>
       <c r="B154">
         <v>4.9692307690000002</v>
@@ -5096,8 +5334,8 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>3.7</v>
+      <c r="A155" t="s">
+        <v>5</v>
       </c>
       <c r="B155">
         <v>4.461538462</v>
@@ -5107,8 +5345,8 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>3.7</v>
+      <c r="A156" t="s">
+        <v>5</v>
       </c>
       <c r="B156">
         <v>1.584615385</v>
@@ -5118,8 +5356,8 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>3.7</v>
+      <c r="A157" t="s">
+        <v>5</v>
       </c>
       <c r="B157">
         <v>5.6461538459999998</v>
@@ -5129,8 +5367,8 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>3.7</v>
+      <c r="A158" t="s">
+        <v>5</v>
       </c>
       <c r="B158">
         <v>0.907692308</v>
@@ -5140,8 +5378,8 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>3.7</v>
+      <c r="A159" t="s">
+        <v>5</v>
       </c>
       <c r="B159">
         <v>0.73846153800000003</v>
@@ -5151,8 +5389,8 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>3.7</v>
+      <c r="A160" t="s">
+        <v>5</v>
       </c>
       <c r="B160">
         <v>5.4769230770000004</v>
@@ -5162,8 +5400,8 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>3.7</v>
+      <c r="A161" t="s">
+        <v>5</v>
       </c>
       <c r="B161">
         <v>3.615384615</v>
@@ -5173,8 +5411,8 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>3.7</v>
+      <c r="A162" t="s">
+        <v>5</v>
       </c>
       <c r="B162">
         <v>1.415384615</v>
@@ -5184,8 +5422,8 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>3.7</v>
+      <c r="A163" t="s">
+        <v>5</v>
       </c>
       <c r="B163">
         <v>4.2923076919999996</v>
@@ -5195,8 +5433,8 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>3.7</v>
+      <c r="A164" t="s">
+        <v>5</v>
       </c>
       <c r="B164">
         <v>3.2769230770000002</v>
@@ -5206,8 +5444,8 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>3.7</v>
+      <c r="A165" t="s">
+        <v>5</v>
       </c>
       <c r="B165">
         <v>0.56923076900000003</v>
@@ -5217,8 +5455,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>3.7</v>
+      <c r="A166" t="s">
+        <v>5</v>
       </c>
       <c r="B166">
         <v>2.2615384619999999</v>
@@ -5228,8 +5466,8 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>3.7</v>
+      <c r="A167" t="s">
+        <v>5</v>
       </c>
       <c r="B167">
         <v>1.7538461540000001</v>
@@ -5239,8 +5477,8 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>3.7</v>
+      <c r="A168" t="s">
+        <v>5</v>
       </c>
       <c r="B168">
         <v>3.1076923079999998</v>
@@ -5250,8 +5488,8 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>3.7</v>
+      <c r="A169" t="s">
+        <v>5</v>
       </c>
       <c r="B169">
         <v>5</v>
@@ -5261,8 +5499,8 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>3.7</v>
+      <c r="A170" t="s">
+        <v>5</v>
       </c>
       <c r="B170">
         <v>3.9538461539999998</v>
@@ -5272,8 +5510,8 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>3.7</v>
+      <c r="A171" t="s">
+        <v>5</v>
       </c>
       <c r="B171">
         <v>1.2461538459999999</v>
@@ -5283,8 +5521,8 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>3.7</v>
+      <c r="A172" t="s">
+        <v>5</v>
       </c>
       <c r="B172">
         <v>2.6</v>
@@ -5294,8 +5532,8 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>3.7</v>
+      <c r="A173" t="s">
+        <v>5</v>
       </c>
       <c r="B173">
         <v>1.076923077</v>
@@ -5305,8 +5543,8 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>3.7</v>
+      <c r="A174" t="s">
+        <v>5</v>
       </c>
       <c r="B174">
         <v>4.9692307690000002</v>
@@ -5316,8 +5554,8 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>3.7</v>
+      <c r="A175" t="s">
+        <v>5</v>
       </c>
       <c r="B175">
         <v>4.6307692310000004</v>
@@ -5327,8 +5565,8 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>3.7</v>
+      <c r="A176" t="s">
+        <v>5</v>
       </c>
       <c r="B176">
         <v>0.747368421</v>
@@ -5338,8 +5576,8 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>3.7</v>
+      <c r="A177" t="s">
+        <v>5</v>
       </c>
       <c r="B177">
         <v>5.1384615379999996</v>
@@ -5349,8 +5587,8 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>3.7</v>
+      <c r="A178" t="s">
+        <v>5</v>
       </c>
       <c r="B178">
         <v>1.415384615</v>
@@ -5360,8 +5598,8 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>3.7</v>
+      <c r="A179" t="s">
+        <v>5</v>
       </c>
       <c r="B179">
         <v>3.2769230770000002</v>
@@ -5371,8 +5609,8 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>3.7</v>
+      <c r="A180" t="s">
+        <v>5</v>
       </c>
       <c r="B180">
         <v>4.6307692310000004</v>
@@ -5382,8 +5620,8 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>3.7</v>
+      <c r="A181" t="s">
+        <v>5</v>
       </c>
       <c r="B181">
         <v>4.461538462</v>
@@ -5393,8 +5631,8 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>3.7</v>
+      <c r="A182" t="s">
+        <v>5</v>
       </c>
       <c r="B182">
         <v>4.6307692310000004</v>
@@ -5404,8 +5642,8 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>3.7</v>
+      <c r="A183" t="s">
+        <v>5</v>
       </c>
       <c r="B183">
         <v>5.4769230770000004</v>
@@ -5415,8 +5653,8 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>3.7</v>
+      <c r="A184" t="s">
+        <v>5</v>
       </c>
       <c r="B184">
         <v>2.6</v>
@@ -5426,8 +5664,8 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>3.7</v>
+      <c r="A185" t="s">
+        <v>5</v>
       </c>
       <c r="B185">
         <v>1.415384615</v>
@@ -5437,8 +5675,8 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>3.7</v>
+      <c r="A186" t="s">
+        <v>5</v>
       </c>
       <c r="B186">
         <v>1.584615385</v>
@@ -5448,8 +5686,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>3.7</v>
+      <c r="A187" t="s">
+        <v>5</v>
       </c>
       <c r="B187">
         <v>2.6</v>
@@ -5459,8 +5697,8 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>3.7</v>
+      <c r="A188" t="s">
+        <v>5</v>
       </c>
       <c r="B188">
         <v>0.907692308</v>
@@ -5470,8 +5708,8 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>3.7</v>
+      <c r="A189" t="s">
+        <v>5</v>
       </c>
       <c r="B189">
         <v>0.73846153800000003</v>
@@ -5481,8 +5719,8 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>3.7</v>
+      <c r="A190" t="s">
+        <v>5</v>
       </c>
       <c r="B190">
         <v>1.923076923</v>
@@ -5492,8 +5730,8 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>3.7</v>
+      <c r="A191" t="s">
+        <v>5</v>
       </c>
       <c r="B191">
         <v>3.7846153849999999</v>
@@ -5503,8 +5741,8 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>3.7</v>
+      <c r="A192" t="s">
+        <v>5</v>
       </c>
       <c r="B192">
         <v>5.9846153849999997</v>
@@ -5514,8 +5752,8 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>3.7</v>
+      <c r="A193" t="s">
+        <v>5</v>
       </c>
       <c r="B193">
         <v>2.769230769</v>
@@ -5525,8 +5763,8 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>3.8</v>
+      <c r="A194" t="s">
+        <v>6</v>
       </c>
       <c r="B194">
         <v>0.45</v>
@@ -5536,8 +5774,8 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>3.8</v>
+      <c r="A195" t="s">
+        <v>6</v>
       </c>
       <c r="B195">
         <v>2.733333333</v>
@@ -5547,8 +5785,8 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>3.8</v>
+      <c r="A196" t="s">
+        <v>6</v>
       </c>
       <c r="B196">
         <v>0.53888888899999998</v>
@@ -5558,8 +5796,8 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>3.8</v>
+      <c r="A197" t="s">
+        <v>6</v>
       </c>
       <c r="B197">
         <v>3.7</v>
@@ -5569,8 +5807,8 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>3.8</v>
+      <c r="A198" t="s">
+        <v>6</v>
       </c>
       <c r="B198">
         <v>4.8</v>
@@ -5580,8 +5818,8 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>3.8</v>
+      <c r="A199" t="s">
+        <v>6</v>
       </c>
       <c r="B199">
         <v>5.2</v>
@@ -5591,8 +5829,8 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>3.8</v>
+      <c r="A200" t="s">
+        <v>6</v>
       </c>
       <c r="B200">
         <v>0.48333333299999998</v>
@@ -5602,8 +5840,8 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>3.8</v>
+      <c r="A201" t="s">
+        <v>6</v>
       </c>
       <c r="B201">
         <v>2.8</v>
@@ -5613,8 +5851,8 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>3.8</v>
+      <c r="A202" t="s">
+        <v>6</v>
       </c>
       <c r="B202">
         <v>5.1111111109999996</v>
@@ -5624,8 +5862,8 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>3.8</v>
+      <c r="A203" t="s">
+        <v>6</v>
       </c>
       <c r="B203">
         <v>3.766666667</v>
@@ -5635,8 +5873,8 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>3.8</v>
+      <c r="A204" t="s">
+        <v>6</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -5646,8 +5884,8 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>3.8</v>
+      <c r="A205" t="s">
+        <v>6</v>
       </c>
       <c r="B205">
         <v>5.0222222219999999</v>
@@ -5657,8 +5895,8 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>3.8</v>
+      <c r="A206" t="s">
+        <v>6</v>
       </c>
       <c r="B206">
         <v>0.49444444399999998</v>
@@ -5668,8 +5906,8 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>3.8</v>
+      <c r="A207" t="s">
+        <v>6</v>
       </c>
       <c r="B207">
         <v>0.46111111100000002</v>
@@ -5679,8 +5917,8 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>3.8</v>
+      <c r="A208" t="s">
+        <v>6</v>
       </c>
       <c r="B208">
         <v>0.7</v>
@@ -5690,8 +5928,8 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>3.8</v>
+      <c r="A209" t="s">
+        <v>6</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -5701,8 +5939,8 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>3.8</v>
+      <c r="A210" t="s">
+        <v>6</v>
       </c>
       <c r="B210">
         <v>5.0666666669999998</v>
@@ -5712,8 +5950,8 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>3.8</v>
+      <c r="A211" t="s">
+        <v>6</v>
       </c>
       <c r="B211">
         <v>0.8</v>
@@ -5723,8 +5961,8 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>3.8</v>
+      <c r="A212" t="s">
+        <v>6</v>
       </c>
       <c r="B212">
         <v>0.52777777800000003</v>
@@ -5734,8 +5972,8 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>3.8</v>
+      <c r="A213" t="s">
+        <v>6</v>
       </c>
       <c r="B213">
         <v>0.73333333300000003</v>
@@ -5745,8 +5983,8 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>3.8</v>
+      <c r="A214" t="s">
+        <v>6</v>
       </c>
       <c r="B214">
         <v>0.50555555600000002</v>
@@ -5756,8 +5994,8 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>3.8</v>
+      <c r="A215" t="s">
+        <v>6</v>
       </c>
       <c r="B215">
         <v>4.9333333330000002</v>
@@ -5767,8 +6005,8 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>3.8</v>
+      <c r="A216" t="s">
+        <v>6</v>
       </c>
       <c r="B216">
         <v>3.9666666670000001</v>
@@ -5778,8 +6016,8 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>3.8</v>
+      <c r="A217" t="s">
+        <v>6</v>
       </c>
       <c r="B217">
         <v>4.8888888890000004</v>
@@ -5789,8 +6027,8 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>3.8</v>
+      <c r="A218" t="s">
+        <v>6</v>
       </c>
       <c r="B218">
         <v>0.76666666699999997</v>
@@ -5800,8 +6038,8 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>3.8</v>
+      <c r="A219" t="s">
+        <v>6</v>
       </c>
       <c r="B219">
         <v>2.4</v>
@@ -5811,8 +6049,8 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>3.8</v>
+      <c r="A220" t="s">
+        <v>6</v>
       </c>
       <c r="B220">
         <v>0.74444444399999998</v>
@@ -5822,8 +6060,8 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>3.8</v>
+      <c r="A221" t="s">
+        <v>6</v>
       </c>
       <c r="B221">
         <v>3.8666666670000001</v>
@@ -5833,8 +6071,8 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>3.8</v>
+      <c r="A222" t="s">
+        <v>6</v>
       </c>
       <c r="B222">
         <v>0.78888888899999998</v>
@@ -5844,8 +6082,8 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>3.8</v>
+      <c r="A223" t="s">
+        <v>6</v>
       </c>
       <c r="B223">
         <v>2.5333333329999999</v>
@@ -5855,8 +6093,8 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>3.8</v>
+      <c r="A224" t="s">
+        <v>6</v>
       </c>
       <c r="B224">
         <v>0.47222222200000002</v>
@@ -5866,8 +6104,8 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>3.8</v>
+      <c r="A225" t="s">
+        <v>6</v>
       </c>
       <c r="B225">
         <v>0.72222222199999997</v>
@@ -5877,8 +6115,8 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>3.8</v>
+      <c r="A226" t="s">
+        <v>6</v>
       </c>
       <c r="B226">
         <v>3.733333333</v>
@@ -5888,8 +6126,8 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>3.8</v>
+      <c r="A227" t="s">
+        <v>6</v>
       </c>
       <c r="B227">
         <v>0.75555555600000002</v>
@@ -5899,8 +6137,8 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>3.8</v>
+      <c r="A228" t="s">
+        <v>6</v>
       </c>
       <c r="B228">
         <v>3.8</v>
@@ -5910,8 +6148,8 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>3.8</v>
+      <c r="A229" t="s">
+        <v>6</v>
       </c>
       <c r="B229">
         <v>5.1555555560000004</v>
@@ -5921,8 +6159,8 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>3.8</v>
+      <c r="A230" t="s">
+        <v>6</v>
       </c>
       <c r="B230">
         <v>2.8666666670000001</v>
@@ -5932,8 +6170,8 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>3.8</v>
+      <c r="A231" t="s">
+        <v>6</v>
       </c>
       <c r="B231">
         <v>0.51666666699999997</v>
@@ -5943,8 +6181,8 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>3.8</v>
+      <c r="A232" t="s">
+        <v>6</v>
       </c>
       <c r="B232">
         <v>2.6</v>
@@ -5954,8 +6192,8 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>3.8</v>
+      <c r="A233" t="s">
+        <v>6</v>
       </c>
       <c r="B233">
         <v>3.9333333330000002</v>
@@ -5965,8 +6203,8 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>3.8</v>
+      <c r="A234" t="s">
+        <v>6</v>
       </c>
       <c r="B234">
         <v>0.77777777800000003</v>
@@ -5976,8 +6214,8 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>3.8</v>
+      <c r="A235" t="s">
+        <v>6</v>
       </c>
       <c r="B235">
         <v>4.8444444439999996</v>
@@ -5987,8 +6225,8 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>3.8</v>
+      <c r="A236" t="s">
+        <v>6</v>
       </c>
       <c r="B236">
         <v>0.71111111100000002</v>
@@ -5998,8 +6236,8 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>3.8</v>
+      <c r="A237" t="s">
+        <v>6</v>
       </c>
       <c r="B237">
         <v>0.55000000000000004</v>
@@ -6009,8 +6247,8 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>3.8</v>
+      <c r="A238" t="s">
+        <v>6</v>
       </c>
       <c r="B238">
         <v>2.4666666670000001</v>
@@ -6020,8 +6258,8 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>3.8</v>
+      <c r="A239" t="s">
+        <v>6</v>
       </c>
       <c r="B239">
         <v>3.9</v>
@@ -6031,8 +6269,8 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>3.8</v>
+      <c r="A240" t="s">
+        <v>6</v>
       </c>
       <c r="B240">
         <v>4.9777777780000001</v>
@@ -6042,8 +6280,8 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>3.8</v>
+      <c r="A241" t="s">
+        <v>6</v>
       </c>
       <c r="B241">
         <v>2.9333333330000002</v>
@@ -6053,8 +6291,8 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>3.8</v>
+      <c r="A242" t="s">
+        <v>6</v>
       </c>
       <c r="B242">
         <v>3.8333333330000001</v>
@@ -6064,8 +6302,8 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>3.8</v>
+      <c r="A243" t="s">
+        <v>6</v>
       </c>
       <c r="B243">
         <v>2.6666666669999999</v>
@@ -6075,8 +6313,8 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>3.9</v>
+      <c r="A244" t="s">
+        <v>7</v>
       </c>
       <c r="B244">
         <v>2.7602796113413102</v>
@@ -6086,8 +6324,8 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>3.9</v>
+      <c r="A245" t="s">
+        <v>7</v>
       </c>
       <c r="B245">
         <v>2.50703881365627</v>
@@ -6097,8 +6335,8 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>3.9</v>
+      <c r="A246" t="s">
+        <v>7</v>
       </c>
       <c r="B246">
         <v>2.4742687907557199</v>
@@ -6108,8 +6346,8 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>3.9</v>
+      <c r="A247" t="s">
+        <v>7</v>
       </c>
       <c r="B247">
         <v>2.9361999739480198</v>
@@ -6119,8 +6357,8 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>3.9</v>
+      <c r="A248" t="s">
+        <v>7</v>
       </c>
       <c r="B248">
         <v>2.6488248803546601</v>
@@ -6130,8 +6368,8 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>3.9</v>
+      <c r="A249" t="s">
+        <v>7</v>
       </c>
       <c r="B249">
         <v>2.4127961671097702</v>
@@ -6141,8 +6379,8 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>3.9</v>
+      <c r="A250" t="s">
+        <v>7</v>
       </c>
       <c r="B250">
         <v>2.9916734137633298</v>
@@ -6152,8 +6390,8 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>3.9</v>
+      <c r="A251" t="s">
+        <v>7</v>
       </c>
       <c r="B251">
         <v>2.4733615637389099</v>
@@ -6163,8 +6401,8 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>3.9</v>
+      <c r="A252" t="s">
+        <v>7</v>
       </c>
       <c r="B252">
         <v>2.6198239887021799</v>
@@ -6174,8 +6412,8 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>3.9</v>
+      <c r="A253" t="s">
+        <v>7</v>
       </c>
       <c r="B253">
         <v>2.4117993383679801</v>
@@ -6185,8 +6423,8 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>3.9</v>
+      <c r="A254" t="s">
+        <v>7</v>
       </c>
       <c r="B254">
         <v>2.4147216568162699</v>
@@ -6196,8 +6434,8 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <v>3.9</v>
+      <c r="A255" t="s">
+        <v>7</v>
       </c>
       <c r="B255">
         <v>2.9768573931242601</v>
@@ -6207,8 +6445,8 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>3.9</v>
+      <c r="A256" t="s">
+        <v>7</v>
       </c>
       <c r="B256">
         <v>2.8143867824541902</v>
@@ -6218,8 +6456,8 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>3.9</v>
+      <c r="A257" t="s">
+        <v>7</v>
       </c>
       <c r="B257">
         <v>2.7643750947758301</v>
@@ -6229,8 +6467,8 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <v>3.9</v>
+      <c r="A258" t="s">
+        <v>7</v>
       </c>
       <c r="B258">
         <v>2.7804438478029199</v>
@@ -6240,8 +6478,8 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <v>3.9</v>
+      <c r="A259" t="s">
+        <v>7</v>
       </c>
       <c r="B259">
         <v>2.6180447932333899</v>
@@ -6251,8 +6489,8 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <v>3.9</v>
+      <c r="A260" t="s">
+        <v>7</v>
       </c>
       <c r="B260">
         <v>2.60484986439449</v>
@@ -6262,8 +6500,8 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>3.9</v>
+      <c r="A261" t="s">
+        <v>7</v>
       </c>
       <c r="B261">
         <v>2.4194144638143502</v>
@@ -6273,8 +6511,8 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>3.9</v>
+      <c r="A262" t="s">
+        <v>7</v>
       </c>
       <c r="B262">
         <v>2.7413908980529298</v>
@@ -6284,8 +6522,8 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>3.9</v>
+      <c r="A263" t="s">
+        <v>7</v>
       </c>
       <c r="B263">
         <v>2.8756934311995499</v>
@@ -6295,8 +6533,8 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>3.9</v>
+      <c r="A264" t="s">
+        <v>7</v>
       </c>
       <c r="B264">
         <v>3.8418577839399899</v>
@@ -6306,8 +6544,8 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <v>3.9</v>
+      <c r="A265" t="s">
+        <v>7</v>
       </c>
       <c r="B265">
         <v>3.9884533237109898</v>
@@ -6317,8 +6555,8 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <v>3.9</v>
+      <c r="A266" t="s">
+        <v>7</v>
       </c>
       <c r="B266">
         <v>3.8417432570619501</v>
@@ -6328,8 +6566,8 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>3.9</v>
+      <c r="A267" t="s">
+        <v>7</v>
       </c>
       <c r="B267">
         <v>3.8656647536458202</v>
@@ -6339,8 +6577,8 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>3.9</v>
+      <c r="A268" t="s">
+        <v>7</v>
       </c>
       <c r="B268">
         <v>3.98986873690203</v>
@@ -6350,8 +6588,8 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>3.9</v>
+      <c r="A269" t="s">
+        <v>7</v>
       </c>
       <c r="B269">
         <v>3.81862772192141</v>
@@ -6361,8 +6599,8 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>3.9</v>
+      <c r="A270" t="s">
+        <v>7</v>
       </c>
       <c r="B270">
         <v>3.8099328995078801</v>
@@ -6372,8 +6610,8 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>3.9</v>
+      <c r="A271" t="s">
+        <v>7</v>
       </c>
       <c r="B271">
         <v>3.8405638429095599</v>
@@ -6383,8 +6621,8 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>3.9</v>
+      <c r="A272" t="s">
+        <v>7</v>
       </c>
       <c r="B272">
         <v>3.9466062781199498</v>
@@ -6394,8 +6632,8 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>3.9</v>
+      <c r="A273" t="s">
+        <v>7</v>
       </c>
       <c r="B273">
         <v>3.85085765245752</v>
@@ -6405,8 +6643,8 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>3.9</v>
+      <c r="A274" t="s">
+        <v>7</v>
       </c>
       <c r="B274">
         <v>3.8345046369550602</v>
@@ -6416,8 +6654,8 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>3.9</v>
+      <c r="A275" t="s">
+        <v>7</v>
       </c>
       <c r="B275">
         <v>3.8502554105025699</v>
@@ -6427,8 +6665,8 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>3.9</v>
+      <c r="A276" t="s">
+        <v>7</v>
       </c>
       <c r="B276">
         <v>3.91881766342863</v>
@@ -6438,8 +6676,8 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>3.9</v>
+      <c r="A277" t="s">
+        <v>7</v>
       </c>
       <c r="B277">
         <v>3.9748014935047098</v>
@@ -6449,8 +6687,8 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>3.9</v>
+      <c r="A278" t="s">
+        <v>7</v>
       </c>
       <c r="B278">
         <v>3.87784083651731</v>
@@ -6460,8 +6698,8 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>3.9</v>
+      <c r="A279" t="s">
+        <v>7</v>
       </c>
       <c r="B279">
         <v>3.9212537454428702</v>
@@ -6471,8 +6709,8 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>3.9</v>
+      <c r="A280" t="s">
+        <v>7</v>
       </c>
       <c r="B280">
         <v>3.8846710419628598</v>
@@ -6482,8 +6720,8 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>3.9</v>
+      <c r="A281" t="s">
+        <v>7</v>
       </c>
       <c r="B281">
         <v>3.8534879167368699</v>
@@ -6493,8 +6731,8 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>3.9</v>
+      <c r="A282" t="s">
+        <v>7</v>
       </c>
       <c r="B282">
         <v>3.8002241829402799</v>
@@ -6504,8 +6742,8 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>3.9</v>
+      <c r="A283" t="s">
+        <v>7</v>
       </c>
       <c r="B283">
         <v>3.91718619665654</v>
@@ -6515,8 +6753,8 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <v>3.9</v>
+      <c r="A284" t="s">
+        <v>7</v>
       </c>
       <c r="B284">
         <v>4.8520768347462297</v>
@@ -6526,8 +6764,8 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <v>3.9</v>
+      <c r="A285" t="s">
+        <v>7</v>
       </c>
       <c r="B285">
         <v>4.8831885324062601</v>
@@ -6537,8 +6775,8 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286">
-        <v>3.9</v>
+      <c r="A286" t="s">
+        <v>7</v>
       </c>
       <c r="B286">
         <v>4.9016768722738604</v>
@@ -6548,8 +6786,8 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287">
-        <v>3.9</v>
+      <c r="A287" t="s">
+        <v>7</v>
       </c>
       <c r="B287">
         <v>4.8408761772806397</v>
@@ -6559,8 +6797,8 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <v>3.9</v>
+      <c r="A288" t="s">
+        <v>7</v>
       </c>
       <c r="B288">
         <v>4.8431582161446203</v>
@@ -6570,8 +6808,8 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <v>3.9</v>
+      <c r="A289" t="s">
+        <v>7</v>
       </c>
       <c r="B289">
         <v>4.9718968202029004</v>
@@ -6581,8 +6819,8 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>3.9</v>
+      <c r="A290" t="s">
+        <v>7</v>
       </c>
       <c r="B290">
         <v>4.9722608292300796</v>
@@ -6592,8 +6830,8 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <v>3.9</v>
+      <c r="A291" t="s">
+        <v>7</v>
       </c>
       <c r="B291">
         <v>4.9823158017214801</v>
@@ -6603,8 +6841,8 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <v>3.9</v>
+      <c r="A292" t="s">
+        <v>7</v>
       </c>
       <c r="B292">
         <v>4.8212904381491697</v>
@@ -6614,8 +6852,8 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <v>3.9</v>
+      <c r="A293" t="s">
+        <v>7</v>
       </c>
       <c r="B293">
         <v>4.8786049399904901</v>
@@ -6625,8 +6863,8 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <v>3.9</v>
+      <c r="A294" t="s">
+        <v>7</v>
       </c>
       <c r="B294">
         <v>4.9269057289020699</v>
@@ -6636,8 +6874,8 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <v>3.9</v>
+      <c r="A295" t="s">
+        <v>7</v>
       </c>
       <c r="B295">
         <v>4.8313555763620899</v>
@@ -6647,8 +6885,8 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <v>3.9</v>
+      <c r="A296" t="s">
+        <v>7</v>
       </c>
       <c r="B296">
         <v>4.9752368861908902</v>
@@ -6658,8 +6896,8 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <v>3.9</v>
+      <c r="A297" t="s">
+        <v>7</v>
       </c>
       <c r="B297">
         <v>4.9447512731548304</v>
@@ -6669,8 +6907,8 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>3.9</v>
+      <c r="A298" t="s">
+        <v>7</v>
       </c>
       <c r="B298">
         <v>4.9829793523194201</v>
@@ -6680,8 +6918,8 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <v>3.9</v>
+      <c r="A299" t="s">
+        <v>7</v>
       </c>
       <c r="B299">
         <v>4.9989539083451504</v>
@@ -6691,8 +6929,8 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>3.9</v>
+      <c r="A300" t="s">
+        <v>7</v>
       </c>
       <c r="B300">
         <v>4.8742438962784798</v>
@@ -6702,8 +6940,8 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>3.9</v>
+      <c r="A301" t="s">
+        <v>7</v>
       </c>
       <c r="B301">
         <v>4.9191729413682701</v>
@@ -6713,8 +6951,8 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <v>3.9</v>
+      <c r="A302" t="s">
+        <v>7</v>
       </c>
       <c r="B302">
         <v>4.8878074122033901</v>
@@ -6724,8 +6962,8 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <v>3.9</v>
+      <c r="A303" t="s">
+        <v>7</v>
       </c>
       <c r="B303">
         <v>4.8878431133182003</v>
@@ -6735,8 +6973,8 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>3.9</v>
+      <c r="A304" t="s">
+        <v>7</v>
       </c>
       <c r="B304">
         <v>0.49026540700599802</v>
@@ -6746,8 +6984,8 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305">
-        <v>3.9</v>
+      <c r="A305" t="s">
+        <v>7</v>
       </c>
       <c r="B305">
         <v>0.49577245213293503</v>
@@ -6757,8 +6995,8 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <v>3.9</v>
+      <c r="A306" t="s">
+        <v>7</v>
       </c>
       <c r="B306">
         <v>0.49880672830745998</v>
@@ -6768,8 +7006,8 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <v>3.9</v>
+      <c r="A307" t="s">
+        <v>7</v>
       </c>
       <c r="B307">
         <v>0.498990287360699</v>
@@ -6779,8 +7017,8 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
-        <v>3.9</v>
+      <c r="A308" t="s">
+        <v>7</v>
       </c>
       <c r="B308">
         <v>0.50362261129663899</v>
@@ -6790,8 +7028,8 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
-        <v>3.9</v>
+      <c r="A309" t="s">
+        <v>7</v>
       </c>
       <c r="B309">
         <v>0.50455121739738795</v>
@@ -6801,8 +7039,8 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310">
-        <v>3.9</v>
+      <c r="A310" t="s">
+        <v>7</v>
       </c>
       <c r="B310">
         <v>0.49904774531822099</v>
@@ -6812,8 +7050,8 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
-        <v>3.9</v>
+      <c r="A311" t="s">
+        <v>7</v>
       </c>
       <c r="B311">
         <v>0.49664768875848297</v>
@@ -6823,8 +7061,8 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>3.9</v>
+      <c r="A312" t="s">
+        <v>7</v>
       </c>
       <c r="B312">
         <v>0.49545758203857898</v>
@@ -6834,8 +7072,8 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313">
-        <v>3.9</v>
+      <c r="A313" t="s">
+        <v>7</v>
       </c>
       <c r="B313">
         <v>0.50425205994606104</v>
@@ -6845,8 +7083,8 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314">
-        <v>3.9</v>
+      <c r="A314" t="s">
+        <v>7</v>
       </c>
       <c r="B314">
         <v>0.507448427237009</v>
@@ -6856,8 +7094,8 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315">
-        <v>3.9</v>
+      <c r="A315" t="s">
+        <v>7</v>
       </c>
       <c r="B315">
         <v>0.498480426009065</v>
@@ -6867,8 +7105,8 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
-        <v>3.9</v>
+      <c r="A316" t="s">
+        <v>7</v>
       </c>
       <c r="B316">
         <v>0.503027736213986</v>
@@ -6878,8 +7116,8 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317">
-        <v>3.9</v>
+      <c r="A317" t="s">
+        <v>7</v>
       </c>
       <c r="B317">
         <v>0.49498598323495302</v>
@@ -6889,8 +7127,8 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318">
-        <v>3.9</v>
+      <c r="A318" t="s">
+        <v>7</v>
       </c>
       <c r="B318">
         <v>0.50293060732499495</v>
@@ -6900,8 +7138,8 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319">
-        <v>3.9</v>
+      <c r="A319" t="s">
+        <v>7</v>
       </c>
       <c r="B319">
         <v>0.50859994878055403</v>
@@ -6911,8 +7149,8 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320">
-        <v>3.9</v>
+      <c r="A320" t="s">
+        <v>7</v>
       </c>
       <c r="B320">
         <v>0.49923137836984499</v>
@@ -6922,8 +7160,8 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321">
-        <v>3.9</v>
+      <c r="A321" t="s">
+        <v>7</v>
       </c>
       <c r="B321">
         <v>0.50553841919939602</v>
@@ -6933,8 +7171,8 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322">
-        <v>3.9</v>
+      <c r="A322" t="s">
+        <v>7</v>
       </c>
       <c r="B322">
         <v>0.49245337449328902</v>
@@ -6944,8 +7182,8 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323">
-        <v>3.9</v>
+      <c r="A323" t="s">
+        <v>7</v>
       </c>
       <c r="B323">
         <v>0.502547823558256</v>
@@ -6954,15 +7192,109 @@
         <v>0.538060758708099</v>
       </c>
     </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>8</v>
+      </c>
+      <c r="B324">
+        <v>0.5</v>
+      </c>
+      <c r="C324">
+        <v>0.55330734792957204</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C325">
+        <v>0.53371646814773799</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326">
+        <v>1.923</v>
+      </c>
+      <c r="C326">
+        <v>0.548961443715136</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="C327">
+        <v>0.52836954924963797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>8</v>
+      </c>
+      <c r="B328">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="C328">
+        <v>0.53443001464653095</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="C329">
+        <v>0.55265893997003801</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <v>2.76</v>
+      </c>
+      <c r="C330">
+        <v>0.550369079566565</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="C331">
+        <v>0.548540553513438</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>8</v>
+      </c>
+      <c r="B332">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="C332">
+        <v>0.52428083459975205</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C323" xr:uid="{EA202254-1ABC-3645-BCDB-682375C203EB}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.3"/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C243">
-      <sortCondition ref="A1:A243"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C323">
+      <sortCondition ref="A1:A323"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
